--- a/Analytics.xlsx
+++ b/Analytics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Set based Dijkstra" sheetId="1" r:id="rId1"/>
@@ -17035,8 +17035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17567,7 +17567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
@@ -18098,7 +18098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
@@ -18629,7 +18629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -19160,8 +19160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R102" sqref="R102"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19175,8 +19175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R103" sqref="R103"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
